--- a/results/2016年第1季.xlsx
+++ b/results/2016年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7582 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>240</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>811,739</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>645,484</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>261,433</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>236,737</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>378,310</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-197,469</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>377,627</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>736,136</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,306,942</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,777,736</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,214,552</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,190,362</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,590,242</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,353,171</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,410,868</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-549,614</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,211,547</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5,257,098</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,577,896</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>34,084,472</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,090,560</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,122,587</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>567,157</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>335,758</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>108,320</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,054,734</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1,010,671</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-987,412</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>17,849,976</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>19,766,300</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>46,943,968</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,906,386</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,923,795</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>984,649</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>926,974</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-2,375,313</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-546,146</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>368,267</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-2,749,187</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9,434,315</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,980,529</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>30,755,835</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>343</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>286,452</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>162,824</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>115,766</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>89,361</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>123,909</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>123,909</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>161,813</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>36,631</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,350,965</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13,346,779</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,352,928</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>747,306</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>643,871</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,282,597</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-285,074</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-832,288</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>650,610</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18,727,514</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,214,544</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>40,602,651</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,369</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-20,844</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-34,296</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-27,031</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-37,952</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-30,690</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>32,377</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>27,546</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,726,876</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,292,082</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,373,588</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,006,131</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>839,493</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>696,851</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-796,367</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-43,319</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-182,258</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,302,969</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,317,307</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>24,532,623</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,410,739</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>311,229</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>158,965</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>110,100</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-261,140</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-73,144</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>207,368</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-336,042</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,238,360</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>965,867</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,766,692</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,733,921</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>761,218</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>396,920</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>211,250</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>641,602</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1,817,014</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-2,027,693</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-124,646</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11,852,343</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,846,679</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>36,230,116</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,255,524</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>609,586</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>317,308</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>260,953</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>365,525</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-287,423</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-139,372</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>89,739</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,047,200</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,723,364</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,829,305</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5,310,386</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-455,621</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-758,027</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-721,949</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-651,729</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>207,377</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>857,353</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-792,819</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>23,143,383</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,997,273</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>75,590,958</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>246,398</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59,843</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-6,655</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-6,166</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>37,680</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1,154</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-45,358</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>37,485</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>433,422</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>506,235</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,337,801</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>203</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14,110,658</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,075,953</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>172,790</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>162,291</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,439,567</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-1,117,129</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>41,924</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>327,161</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18,616,063</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,222,639</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>23,722,633</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>499,493</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60,796</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-27,539</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-26,901</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-25,668</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-206,727</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>261,216</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-242,682</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,374,776</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,825,754</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,443,259</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,280,557</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>255,121</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>134,419</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>106,311</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>576,392</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-192,082</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-98,844</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>482,448</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3,679,880</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,665,460</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,330,177</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,630,076</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>772,362</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>131,325</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>73,047</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>422,572</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-130,490</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-234,711</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>393,342</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,272,666</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,839,881</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,568,581</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>637,784</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>152,951</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14,274</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20,267</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-7,096</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-10,824</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>151,200</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-16,722</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>382,055</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>159,698</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,095,248</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,054,161</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-69,855</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-61,998</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-115,530</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-156,536</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>159,839</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-383,723</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,479,516</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,337,668</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,271,994</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>261,672</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>77,785</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13,692</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-3,289</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2,961</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-56,251</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>60,270</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-48,109</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>738,255</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>658,864</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,934,854</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>108,888</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38,535</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22,284</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19,963</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>40,318</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-21,762</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>19,950</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>128,925</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>308,491</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>833,717</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>60,470</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46,934</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-7,064</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-8,591</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-26,911</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-12,561</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7,794</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-37,707</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>143,341</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.17</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>131,377</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>536,337</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>825,237</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>269,145</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>227,531</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>191,745</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>360,561</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-56,109</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-15,635</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>303,014</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>766,743</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,351,200</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4,153,279</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>908,246</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>403,841</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62,405</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>53,547</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>164,618</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-187,555</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>181,712</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>21,677</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,229,551</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3,018,871</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,976,027</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,061,361</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>516,108</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>176,256</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>152,593</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>135,177</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-30,855</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-103,519</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>129,940</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,177,247</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,783,808</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,742,864</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4,881,476</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>348,970</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-95,295</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>111,923</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-1,731,155</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>60,339</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,782,018</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-1,856,297</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>14,348,971</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,154,718</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>21,884,485</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-51,269</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-52,951</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-37,490</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20,239</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-37,490</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18,844</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-10.13</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-9.76</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>21,293</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>515,502</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4,550,410</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>139,958</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19,878</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>41,082</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2,933,238</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-5,957</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2,409,471</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-3,035,262</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10,743,077</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,891,777</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>24,648,531</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,092,112</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>322,635</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>154,089</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>116,714</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>148,323</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-15,024</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>28,594</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>138,026</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,232,350</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>940,956</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,726,426</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>59</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>675,164</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>155,996</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42,857</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>23,936</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20,480</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-32,403</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>9,610</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,197,925</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>203,073</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,679,540</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,121,605</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,162,871</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-44,252</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30,279</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>908,592</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-863,470</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-247,600</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>709,564</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,323,465</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,072,198</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>42,731,700</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>162,036</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13,616</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3,928</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4,887</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-4,491</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>32,432</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-8,367</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>219,429</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>367,919</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,800,994</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>64,958,543</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4,171,215</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>939,519</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>730,347</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,449,528</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-14,033,088</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-3,978,655</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>9,576,821</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>349,519,866</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>442,827,951</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>670,942,160</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,818,722</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>75,218</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>18,821</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-36,091</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>43,977</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-627,754</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>725,140</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-547,849</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>11,180,100</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>11,163,905</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14,830,542</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>641,722</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8,947</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-4,759</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-13,744</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-176,766</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-3,943</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>169,719</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-180,837</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,740,639</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-0.47</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>954,560</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,668,810</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>393,519</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>214,494</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>48,923</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>40,568</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>38,591</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-12,694</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-40,000</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>26,141</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>663,505</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>788,785</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,502,607</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>75,959</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21,287</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-22,318</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-71,255</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-498</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>171,091</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-71,255</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,462,204</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>24,293</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,679,236</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>193,799</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>36,069</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10,201</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7,951</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>31,262</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-2,111</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-5,315</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>30,639</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>219,951</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>265,547</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,036,584</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>421,338</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>93,468</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>41,110</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>34,071</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-51,603</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-6,699</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-17,118</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-58,424</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>294,611</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>259,569</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,672,255</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>405,140</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9,132</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-82,158</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-91,692</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>13,441</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-38,004</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-34,294</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2,229</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,050,331</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-4.60</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2.70</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>824,650</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,004,000</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>443,538</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>60,479</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1,299</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>43,697</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-8,239</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>35,745</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-19,019</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,570,907</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>891,491</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,649,127</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3,518,095</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>843,425</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-531,354</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-82,461</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-2,278,301</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>143,368</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1,778,789</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-2,505,166</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,673,476</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>12,205,602</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>36,064,319</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>906,830</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>276,809</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-7,030</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-32,326</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-48,227</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-3,691</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-72,719</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-60,986</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,234,060</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,312,177</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,224,322</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>106,667,516</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>36,522,564</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,561,057</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,398,071</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>14,344,705</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-12,301,035</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-1,464,933</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>9,356,878</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>235,004,906</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>158,208,518</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>396,467,101</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,739,580</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>90,236</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-363,407</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-499,571</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>560,056</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-180,816</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-495,429</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>457,120</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,091,603</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.51</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>17,358,704</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>29,668,358</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,799,172</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>121,789</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-317,951</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-383,204</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>140,209</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-83,738</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-246,676</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>102,372</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>9,406,133</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>16,575,849</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>32,900,055</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>56,417,120</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-4,037,460</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-8,402,287</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-8,581,508</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-2,655,053</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-5,626,505</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-5,574,907</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-10,114,460</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>128,448,069</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-3.77</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>193,473,161</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>351,258,361</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10,397,555</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,398,826</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,632,815</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1,844,798</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,449,362</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-4,591,594</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>11,827,744</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,582,987</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>49,194,306</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>49,205,350</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>117,550,947</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>778,034</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>111,808</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20,662</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-135,013</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>303,399</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>53,845</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-297,995</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>303,209</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,817,380</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-6.93</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,837,248</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,698,373</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>958,009,217</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>67,576,473</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35,324,664</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>27,548,860</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>48,589,993</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-60,168,625</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-2,040,649</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>38,846,040</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,049,520,155</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>326,574,458</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,128,750,644</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9,003,022</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>645,129</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>421,183</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>268,664</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>451,631</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>107,960</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>328,028</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>440,308</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>14,829,655</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,373,607</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>24,755,035</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,874,476</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,529,871</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>859,916</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>388,048</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-3,364,286</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>182,839</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-218,206</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-3,714,227</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>64,007,490</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44,947,655</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>101,395,503</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,675,344</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1,437,957</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1,076,420</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,786,525</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-233,896</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-35,966</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>291,096</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-251,575</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23,242,224</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,865,463</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>59,453,535</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>135,849</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23,742</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11,053</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>17,469</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>14,349</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-103,898</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11,349</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>175,356</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>399,278</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,432,933</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8,564,463</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,082,112</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>738,010</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>553,926</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>617,586</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-1,588,575</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>419,371</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-393,237</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>26,164,318</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>16,683,948</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>49,082,678</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>29,345,194</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9,411,859</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,392,650</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4,043,931</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>8,640,563</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,832,839</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-35,193</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>5,814,873</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>75,732,617</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>105,693,048</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>169,237,341</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,944,156</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21,838,504</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13,783,417</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11,927,310</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>6,490,058</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-3,094,397</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>891,277</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3,105,010</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>69,226,111</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>291,630,068</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>456,218,074</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>16</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,189,594</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>746,101</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>100,356</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>77,783</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>286,935</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-18,889</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>7,001</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>280,306</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>6,056,688</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,783,558</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,554,021</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>335,099</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>147,695</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>114,706</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>112,420</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>280,543</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-305,368</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>49,455</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>280,543</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9,879,712</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>19,057,306</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>124,471,678</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14,748,747</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>12,349,244</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10,447,660</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>32,747,758</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-8,910,623</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-4,435,890</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>31,501,532</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>153,442,770</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>128,074,715</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>429,874,081</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,504,568</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>447,424</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>101,025</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>107,360</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-144,201</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-8,232</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>193,718</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-170,087</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,334,451</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,210,534</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,918,435</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,425,275</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>779,400</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>148,312</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>90,570</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>254,631</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-3,782</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>8,239</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>239,410</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6,755,759</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2,049,846</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,589,448</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,961,500</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,551,065</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>757,802</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>635,667</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,215,618</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,160,685</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-622,158</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>176,747</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,724,017</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,179,906</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35,376,407</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,502,882</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,444,585</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>382,610</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,092,363</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-1,390,732</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-67,189</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-1,487,701</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,304,131</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,787,343</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>32,062,971</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,010,211</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>276,332</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>143,115</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>105,226</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>134,505</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-25,910</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>61,284</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>104,296</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,949,703</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,400,388</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,045,457</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>28,604,206</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-2,662,843</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-4,112,144</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-4,587,588</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-3,183,770</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-1,183,096</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5,374,840</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-3,507,522</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>132,693,975</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-7.78</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-2.25</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>104,705,952</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>189,277,563</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>920,504</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-207,782</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-283,956</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-368,426</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>27,360</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-168,739</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-456,457</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-215,449</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,926,334</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-3.91</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>30,971,819</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>33,061,140</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>51,595,906</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,729,222</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,823,232</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,566,862</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>11,327,322</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-11,672,648</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1,335,155</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6,363,977</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>260,157,762</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>148,734,511</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>520,525,278</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>197,066</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11,469</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-5,300</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-4,234</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>9,762</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-909</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-50,009</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>9,078</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,670,622</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,741,946</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,743,124</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>505,729</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>157,421</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61,110</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>46,673</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>31,289</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-11,782</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2,858</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>18,277</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>310,808</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>723,917</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,840,330</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>34,404,079</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5,033,993</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-16,448</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>79,180</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>11,449,475</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-19,303,184</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>14,538,291</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-9,037,651</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>116,486,361</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>186,080,631</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>344,930,698</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,061,215</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>399,628</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>213,565</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>167,187</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>208,753</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-116,693</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-121,221</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>95,508</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,529,343</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,512,050</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,788,379</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>297,753</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>19,133</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-38,639</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-57,340</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-3,487</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-202,599</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-6,470</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-37,900</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>324,030</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-1.62</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,041,096</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,797,089</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,358,356</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,187,286</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>652,302</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>603,073</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,808,492</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-3,488,095</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>855,300</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-1,752,758</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18,953,750</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>27,767,365</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>41,845,447</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>77,493,108</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,887,688</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,102,611</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,270,887</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>5,960,801</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-589,691</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-7,860,665</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5,809,960</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>81,727,239</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>7,073,062</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>126,395,990</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6,290,383</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>987,007</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>267,335</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>156,576</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>543,458</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-150,283</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-52,283</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>459,847</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,156,668</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,567,081</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,806,916</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>8,902,785</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>879,519</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>309,107</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>358,342</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>540,399</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>304,255</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-511,958</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>513,790</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14,454,503</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,453,195</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25,520,765</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6,662,995</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>320,250</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>104,125</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>70,718</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-668,386</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-773</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>829,621</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-669,165</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>5,950,933</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>320,749</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>8,089,680</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>965,640</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>383,947</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>144,174</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>115,341</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>123,241</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>184,328</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-258,173</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>102,749</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,514,418</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,308,121</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,804,874</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>768,870</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>203,361</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-55,914</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-68,874</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-389,484</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-65,105</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>273,057</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-505,961</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,898,172</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,476,634</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,759,602</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,724,561</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>577,677</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>316,738</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>252,509</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>97,805</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-86,065</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-56,217</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-32,640</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,498,794</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,472,618</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,640,729</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>136,443</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>89,408</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-80,653</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>89,289</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-111,589</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-558,933</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>374,652</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-950,135</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,032,183</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>4,837,720</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>6,843,350</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>182</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,104,990</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,094,127</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,384,175</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,024,557</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>695,401</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-1,033,672</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>569,813</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>-203,039</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14,266,480</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,432,953</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29,588,598</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>212</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,353,895</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,041,688</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,042,240</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>857,503</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>594,281</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-126,691</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>513,037</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>249,428</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,829,083</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,569,201</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>47,151,654</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11,678,422</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,170,551</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,033,366</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>790,775</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>534,391</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-1,816,076</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>211,891</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>319,484</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>35,296,204</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>19,115,199</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>90,691,187</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,134,443</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>192,797</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87,741</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>85,038</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-326,254</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-13,344</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>99,556</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-334,106</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,105,664</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>991,613</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,918,129</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4,926,396</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,073,520</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>428,973</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>385,420</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-18,163</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-67,642</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>359,519</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-89,599</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,907,408</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,930,192</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>35,046,399</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>176,649,808</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,482,046</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,776,408</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1,746,263</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>16,749,636</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,155,450</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-8,798,092</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>15,808,785</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>187,466,437</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>23,449,956</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>298,089,959</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>273</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>119,253,004</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16,251,775</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,035,380</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,234,990</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5,202,938</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-396,579</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-296,382</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>4,997,937</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>150,630,811</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>8,917,078</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>325,380,069</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>31,764,175</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,873,380</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,085,749</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>426,061</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>941,732</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1,800,621</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,794,414</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>593,746</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>62,506,417</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,220,219</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>93,922,107</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>233</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,073,400</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,136,865</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,482,496</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,316,461</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,768,679</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-1,044,408</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-411,848</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,464,845</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>10,348,388</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,652,479</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>35,272,843</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,091,169</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,449,743</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>564,315</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>542,265</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-52,486</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>532,739</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-69,754</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-77,726</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>10,327,045</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,859,887</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,386,417</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>188,431</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>59,570</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>11,568</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>12,360</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1,271</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-54,543</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>320,204</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,686</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,028,267</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,152,505</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>190,143</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>68,375</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>57,649</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-252,436</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>362,104</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-253,604</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,815,782</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>370,915</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,814,110</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>265,157</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>243,340</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-26,968</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-44,148</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-136,340</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-10,061</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-137,690</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>244,584</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-2.61</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>58,526</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,916,736</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
